--- a/project-scaffold/Autocomplete graphs/BinarySearchAutocomplete data trial 1.xlsx
+++ b/project-scaffold/Autocomplete graphs/BinarySearchAutocomplete data trial 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1ea3cf31a6ef637/Desktop/Q8 CSE 373/Autocomplete/autocomplete/project-scaffold/Autocomplete graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{A39B4461-C024-4802-BC59-8D0783181A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6D2A24-3D10-4C7F-82BA-2B8AE588E779}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A39B4461-C024-4802-BC59-8D0783181A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21906BF-7338-4A15-804E-0BD06A1B98E2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23" yWindow="30" windowWidth="14384" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinarySearchAutocomplete data t" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
